--- a/src/test/resources/Data/TestData.xlsx
+++ b/src/test/resources/Data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Testing\workspace\DataDriverFramework_2022\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A07F6-CAF1-4FA8-A8B3-E40E01FD2170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68524584-DA11-4556-8044-DAED400B86B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1DFF6926-F9DE-4E5D-AF7B-6279BBB09FC6}"/>
   </bookViews>
@@ -534,7 +534,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
